--- a/benchmarks/compvit-latency.xlsx
+++ b/benchmarks/compvit-latency.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73b27bbc9701609e/Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jajal\research\compvit-again-again\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{12065C00-D742-4D79-BC55-A466CD70C0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DE58168-5AF9-4BE0-A2E7-E3318D646298}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84666167-343B-482F-B48E-9F7F768EDDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{073FB2FD-1B8D-4CEC-8136-7306F27C4DDD}"/>
+    <workbookView xWindow="-16305" yWindow="-12540" windowWidth="16410" windowHeight="14145" xr2:uid="{073FB2FD-1B8D-4CEC-8136-7306F27C4DDD}"/>
   </bookViews>
   <sheets>
     <sheet name="base tome" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -171,7 +171,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73F1A64-53C0-467B-B92E-AA5ED9EB9992}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,7 +2976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EF09DC-8AFC-442F-98F2-24518D427C95}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -3493,7 +3493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD20D36-C93F-4564-ABA3-FC82C1D76BA6}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
